--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -72,6 +72,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,12 +93,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -105,12 +108,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,15 +160,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,7 +173,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,7 +181,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,14 +191,6 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -309,7 +302,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -369,548 +362,568 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K34"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="3" width="8.89285714285714"/>
-    <col collapsed="false" hidden="true" max="9" min="9" style="2" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="2" width="8.89285714285714"/>
+    <col collapsed="false" hidden="true" max="9" min="9" style="1" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="K3" s="7" t="n">
+      <c r="H3" s="5"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="6" t="n">
         <f aca="false">SUM(I5:I34)/2</f>
-        <v>0.364583333333333</v>
+        <v>0.416666666666666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="8" t="n">
         <v>42300</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="n">
         <v>0.5625</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="9" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="10" t="n">
         <f aca="false">H5-G5+F5-E5+D5-C5</f>
         <v>0.1875</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="8" t="n">
         <v>42301</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="9" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="9" t="n">
         <v>0.4375</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13" t="n">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10" t="n">
         <f aca="false">H6-G6+F6-E6+D6-C6</f>
         <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="8" t="n">
         <v>42301</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="9" t="n">
         <v>0.5625</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="10" t="n">
         <f aca="false">H7-G7+F7-E7+D7-C7</f>
         <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="8" t="n">
         <v>42301</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="n">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="9" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="10" t="n">
         <f aca="false">H8-G8+F8-E8+D8-C8</f>
         <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="8" t="n">
         <v>42301</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="9" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="9" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="9" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="9" t="n">
         <v>0.6875</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13" t="n">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="n">
         <f aca="false">H9-G9+F9-E9+D9-C9</f>
         <v>0.145833333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="8" t="n">
         <v>42301</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="9" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="9" t="n">
         <v>0.854166666666667</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13" t="n">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="n">
         <f aca="false">H10-G10+F10-E10+D10-C10</f>
         <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="8" t="n">
         <v>42302</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="9" t="n">
         <v>0.375</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="9" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13" t="n">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="n">
         <f aca="false">H11-G11+F11-E11+D11-C11</f>
         <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="8" t="n">
         <v>42302</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="9" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="9" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="n">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="n">
         <f aca="false">H12-G12+F12-E12+D12-C12</f>
         <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="8" t="n">
         <v>42302</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="9" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13" t="n">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="n">
         <f aca="false">H13-G13+F13-E13+D13-C13</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="8" t="n">
         <v>42303</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="n">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="n">
         <v>0.354166666666667</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="9" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="10" t="n">
         <f aca="false">H14-G14+F14-E14+D14-C14</f>
         <v>0.0625</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="8" t="n">
         <v>42303</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13" t="n">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I15" s="10" t="n">
         <f aca="false">H15-G15+F15-E15+D15-C15</f>
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="8" t="n">
         <v>42303</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13" t="n">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10" t="n">
         <f aca="false">H16-G16+F16-E16+D16-C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="8" t="n">
         <v>42304</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13" t="n">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="n">
         <f aca="false">H17-G17+F17-E17+D17-C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="8" t="n">
         <v>42305</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13" t="n">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="n">
         <f aca="false">H18-G18+F18-E18+D18-C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="8" t="n">
         <v>42306</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13" t="n">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10" t="n">
         <f aca="false">H19-G19+F19-E19+D19-C19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="8" t="n">
         <v>42307</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13" t="n">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="n">
         <f aca="false">H20-G20+F20-E20+D20-C20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="8" t="n">
         <v>42308</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13" t="n">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="n">
         <f aca="false">H21-G21+F21-E21+D21-C21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="8" t="n">
         <v>42309</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13" t="n">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="n">
         <f aca="false">H22-G22+F22-E22+D22-C22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="8" t="n">
         <v>42310</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13" t="n">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="n">
         <f aca="false">H23-G23+F23-E23+D23-C23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="8" t="n">
         <v>42311</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13" t="n">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="n">
         <f aca="false">H24-G24+F24-E24+D24-C24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="8" t="n">
         <v>42312</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13" t="n">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="n">
         <f aca="false">H25-G25+F25-E25+D25-C25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="8" t="n">
         <v>42313</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13" t="n">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10" t="n">
         <f aca="false">H26-G26+F26-E26+D26-C26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="8" t="n">
         <v>42314</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13" t="n">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10" t="n">
         <f aca="false">H27-G27+F27-E27+D27-C27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13" t="n">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10" t="n">
         <f aca="false">H28-G28+F28-E28+D28-C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13" t="n">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10" t="n">
         <f aca="false">H29-G29+F29-E29+D29-C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13" t="n">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10" t="n">
         <f aca="false">H30-G30+F30-E30+D30-C30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13" t="n">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="n">
         <f aca="false">H31-G31+F31-E31+D31-C31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13" t="n">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="n">
         <f aca="false">H32-G32+F32-E32+D32-C32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13" t="n">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="n">
         <f aca="false">H33-G33+F33-E33+D33-C33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="13" t="n">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="n">
         <f aca="false">H34-G34+F34-E34+D34-C34</f>
         <v>0</v>
       </c>
@@ -925,7 +938,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -225,7 +225,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="I:I B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -365,7 +365,7 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,7 +424,7 @@
       <c r="J3" s="0"/>
       <c r="K3" s="6" t="n">
         <f aca="false">SUM(I5:I34)/2</f>
-        <v>0.416666666666666</v>
+        <v>0.802083333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,8 +465,8 @@
         <v>0.75</v>
       </c>
       <c r="I5" s="10" t="n">
-        <f aca="false">H5-G5+F5-E5+D5-C5</f>
-        <v>0.1875</v>
+        <f aca="false">2*(H5-G5)+F5-E5+D5-C5</f>
+        <v>0.375</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -485,8 +485,8 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10" t="n">
-        <f aca="false">H6-G6+F6-E6+D6-C6</f>
-        <v>0.0208333333333333</v>
+        <f aca="false">2*(H6-G6)+F6-E6+D6-C6</f>
+        <v>0.020833333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,8 +504,8 @@
         <v>0.5625</v>
       </c>
       <c r="I7" s="10" t="n">
-        <f aca="false">H7-G7+F7-E7+D7-C7</f>
-        <v>0.0208333333333333</v>
+        <f aca="false">2*(H7-G7)+F7-E7+D7-C7</f>
+        <v>0.0416666666666659</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,8 +523,8 @@
         <v>0.604166666666667</v>
       </c>
       <c r="I8" s="10" t="n">
-        <f aca="false">H8-G8+F8-E8+D8-C8</f>
-        <v>0.0208333333333333</v>
+        <f aca="false">2*(H8-G8)+F8-E8+D8-C8</f>
+        <v>0.0416666666666681</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +546,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="n">
-        <f aca="false">H9-G9+F9-E9+D9-C9</f>
+        <f aca="false">2*(H9-G9)+F9-E9+D9-C9</f>
         <v>0.145833333333333</v>
       </c>
     </row>
@@ -565,8 +565,8 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="n">
-        <f aca="false">H10-G10+F10-E10+D10-C10</f>
-        <v>0.0208333333333333</v>
+        <f aca="false">2*(H10-G10)+F10-E10+D10-C10</f>
+        <v>0.020833333333334</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,8 +584,8 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="n">
-        <f aca="false">H11-G11+F11-E11+D11-C11</f>
-        <v>0.0833333333333333</v>
+        <f aca="false">2*(H11-G11)+F11-E11+D11-C11</f>
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,8 +603,8 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="n">
-        <f aca="false">H12-G12+F12-E12+D12-C12</f>
-        <v>0.0416666666666667</v>
+        <f aca="false">2*(H12-G12)+F12-E12+D12-C12</f>
+        <v>0.041666666666666</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +622,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="n">
-        <f aca="false">H13-G13+F13-E13+D13-C13</f>
+        <f aca="false">2*(H13-G13)+F13-E13+D13-C13</f>
         <v>0.125</v>
       </c>
     </row>
@@ -641,8 +641,8 @@
         <v>0.416666666666667</v>
       </c>
       <c r="I14" s="10" t="n">
-        <f aca="false">H14-G14+F14-E14+D14-C14</f>
-        <v>0.0625</v>
+        <f aca="false">2*(H14-G14)+F14-E14+D14-C14</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,23 +660,27 @@
         <v>0.541666666666667</v>
       </c>
       <c r="I15" s="10" t="n">
-        <f aca="false">H15-G15+F15-E15+D15-C15</f>
-        <v>0.104166666666667</v>
+        <f aca="false">2*(H15-G15)+F15-E15+D15-C15</f>
+        <v>0.208333333333334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="n">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="9" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="I16" s="10" t="n">
-        <f aca="false">H16-G16+F16-E16+D16-C16</f>
-        <v>0</v>
+        <f aca="false">2*(H16-G16)+F16-E16+D16-C16</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,7 +694,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10" t="n">
-        <f aca="false">H17-G17+F17-E17+D17-C17</f>
+        <f aca="false">2*(H17-G17)+F17-E17+D17-C17</f>
         <v>0</v>
       </c>
     </row>
@@ -705,7 +709,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10" t="n">
-        <f aca="false">H18-G18+F18-E18+D18-C18</f>
+        <f aca="false">2*(H18-G18)+F18-E18+D18-C18</f>
         <v>0</v>
       </c>
     </row>
@@ -720,7 +724,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10" t="n">
-        <f aca="false">H19-G19+F19-E19+D19-C19</f>
+        <f aca="false">2*(H19-G19)+F19-E19+D19-C19</f>
         <v>0</v>
       </c>
     </row>
@@ -735,7 +739,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10" t="n">
-        <f aca="false">H20-G20+F20-E20+D20-C20</f>
+        <f aca="false">2*(H20-G20)+F20-E20+D20-C20</f>
         <v>0</v>
       </c>
     </row>
@@ -750,7 +754,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10" t="n">
-        <f aca="false">H21-G21+F21-E21+D21-C21</f>
+        <f aca="false">2*(H21-G21)+F21-E21+D21-C21</f>
         <v>0</v>
       </c>
     </row>
@@ -765,7 +769,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10" t="n">
-        <f aca="false">H22-G22+F22-E22+D22-C22</f>
+        <f aca="false">2*(H22-G22)+F22-E22+D22-C22</f>
         <v>0</v>
       </c>
     </row>
@@ -780,7 +784,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10" t="n">
-        <f aca="false">H23-G23+F23-E23+D23-C23</f>
+        <f aca="false">2*(H23-G23)+F23-E23+D23-C23</f>
         <v>0</v>
       </c>
     </row>
@@ -795,7 +799,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10" t="n">
-        <f aca="false">H24-G24+F24-E24+D24-C24</f>
+        <f aca="false">2*(H24-G24)+F24-E24+D24-C24</f>
         <v>0</v>
       </c>
     </row>
@@ -810,7 +814,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10" t="n">
-        <f aca="false">H25-G25+F25-E25+D25-C25</f>
+        <f aca="false">2*(H25-G25)+F25-E25+D25-C25</f>
         <v>0</v>
       </c>
     </row>
@@ -825,7 +829,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10" t="n">
-        <f aca="false">H26-G26+F26-E26+D26-C26</f>
+        <f aca="false">2*(H26-G26)+F26-E26+D26-C26</f>
         <v>0</v>
       </c>
     </row>
@@ -840,7 +844,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10" t="n">
-        <f aca="false">H27-G27+F27-E27+D27-C27</f>
+        <f aca="false">2*(H27-G27)+F27-E27+D27-C27</f>
         <v>0</v>
       </c>
     </row>
@@ -852,7 +856,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10" t="n">
-        <f aca="false">H28-G28+F28-E28+D28-C28</f>
+        <f aca="false">2*(H28-G28)+F28-E28+D28-C28</f>
         <v>0</v>
       </c>
     </row>
@@ -864,7 +868,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10" t="n">
-        <f aca="false">H29-G29+F29-E29+D29-C29</f>
+        <f aca="false">2*(H29-G29)+F29-E29+D29-C29</f>
         <v>0</v>
       </c>
     </row>
@@ -876,7 +880,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10" t="n">
-        <f aca="false">H30-G30+F30-E30+D30-C30</f>
+        <f aca="false">2*(H30-G30)+F30-E30+D30-C30</f>
         <v>0</v>
       </c>
     </row>
@@ -888,7 +892,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10" t="n">
-        <f aca="false">H31-G31+F31-E31+D31-C31</f>
+        <f aca="false">2*(H31-G31)+F31-E31+D31-C31</f>
         <v>0</v>
       </c>
     </row>
@@ -900,7 +904,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10" t="n">
-        <f aca="false">H32-G32+F32-E32+D32-C32</f>
+        <f aca="false">2*(H32-G32)+F32-E32+D32-C32</f>
         <v>0</v>
       </c>
     </row>
@@ -912,7 +916,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10" t="n">
-        <f aca="false">H33-G33+F33-E33+D33-C33</f>
+        <f aca="false">2*(H33-G33)+F33-E33+D33-C33</f>
         <v>0</v>
       </c>
     </row>
@@ -924,7 +928,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10" t="n">
-        <f aca="false">H34-G34+F34-E34+D34-C34</f>
+        <f aca="false">2*(H34-G34)+F34-E34+D34-C34</f>
         <v>0</v>
       </c>
     </row>
